--- a/TestResults/StProvStdPut.xlsx
+++ b/TestResults/StProvStdPut.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="163">
   <si>
     <t>TestCase ID</t>
   </si>
@@ -64,27 +64,27 @@
 	},
 	"stProvStd":
 	{
-		"orgStdCd":"TestOrg",
-		"stProvCd":"Test_StCD",
-		"stProvNm":"Test_State_prov_Name",
+		"organizationStandardCode":"TestOrg",
+		"stateProvinceCode":"Test_StCD",
+		"stateProvinceName":"Test_State_prov_Name4",
 		"effectiveDate":"2021-07-10",
 		"expirationDate":"2021-07-31"
 	}
 }</t>
   </si>
   <si>
-    <t xml:space="preserve">Input_orgStdCd: TestOrg
-Input_stProvCd: Test_StCD
-Input_stProvNm: Test_State_prov_Name
+    <t xml:space="preserve">Input_organizationStandardCode: TestOrg
+Input_stateProvinceCode: Test_StCD
+Input_stateProvinceName: Test_State_prov_Name4
 Input_effectiveDate2021-07-10
 Input_expirationDate2021-07-31
 Input_LastUpdateUserName:Automation
 </t>
   </si>
   <si>
-    <t xml:space="preserve">DB_orgStdCd: TestOrg
-DB_stProvCd: Test_StCD
-DB_stProvNm: Test_State_prov_Name
+    <t xml:space="preserve">DB_organizationStandardCode: TestOrg
+DB_stateProvinceCode: Test_StCD
+DB_stateProvinceName: Test_State_prov_Name4
 DB_effectiveDate2021-07-10
 DB_expirationDate2021-07-31
 DB_LastUpdateUserName:Automation
@@ -103,16 +103,19 @@
 	{
 		"userName":"Automation",
 		"version":"1.0.0",
+		"transactionId":"bf8b20b1-3dd4-41ce-835a-f1e6ec5e05b0",
+		"timeStamp":"2020-06-19 09:31:23",
+		"statusCode":"200",
 		"message":
 		{
 			"status":"SUCCESS",
-			"internalMessage":"State Province Details successfully updated with stProvCd :Test_StCD",
+			"internalMessage":"State Province Details successfully updated with stateProvinceCode :Test_StCD",
 			"data":null
 		}
 	},
 	"data":
 	{
-		"stProvCd":"Test_StCD"
+		"stateProvinceCode":"Test_StCD"
 	}
 }</t>
   </si>
@@ -126,9 +129,9 @@
     <t>Audit Table Validation</t>
   </si>
   <si>
-    <t xml:space="preserve">Input_orgStdCd: TestOrg
-Input_stProvCd: Test_StCD
-Input_stProvNm: Test_State_prov_Name
+    <t xml:space="preserve">Input_organizationStandardCode: TestOrg
+Input_stateProvinceCode: Test_StCD
+Input_stateProvinceName: Test_State_prov_Name4
 Input_effectiveDate2021-07-10
 Input_expirationDate2021-07-31
 Input_LastUpdateUserName:Automation
@@ -136,9 +139,9 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">DB_orgStdCd: TestOrg
-DB_stProvCd: Test_StCD
-DB_stProvNm: Test_State_prov_Name
+    <t xml:space="preserve">DB_organizationStandardCode: TestOrg
+DB_stateProvinceCode: Test_StCD
+DB_stateProvinceName: Test_State_prov_Name4
 DB_effectiveDate2021-07-10
 DB_expirationDate2021-07-31
 DB_LastUpdateUserName:Automation
@@ -147,6 +150,1495 @@
   </si>
   <si>
     <t>Audit Table validation</t>
+  </si>
+  <si>
+    <t>TC_27</t>
+  </si>
+  <si>
+    <t>Verify the JMS-PASSED queue after the all attributes PUT request sent</t>
+  </si>
+  <si>
+    <t>JMS</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Response_geopoliticalId: 7317162917942004948
+DB_geopoliticalId: 7317162917942004948
+Response_organizationStandardCode: TestOrg
+DB_organizationStandardCode: TestOrg
+Response_stateProvinceCode: Test_StCD
+DB_stateProvinceCode: Test_StCD
+Response_stateProvinceName: Test_State_prov_Name4
+DB_stateProvinceName: Test_State_prov_Name4
+Response_EffectiveDate: 2021-07-10
+DB_EffectiveDate: 2021-07-10
+Response_ExpirationDate: 2021-07-31
+DB_ExpirationDate: 2021-07-31
+</t>
+  </si>
+  <si>
+    <t>TC_02</t>
+  </si>
+  <si>
+    <t>Verify that the ERROR message is received when the empty value is passed in JSON for orgstdCd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+{
+	"meta":
+	{
+		"userName":"Automation"
+	},
+	"stProvStd":
+	{
+		"organizationStandardCode":"",
+		"stateProvinceCode":"Test_StCD",
+		"stateProvinceName":"Test_State_prov_Name1",
+		"effectiveDate":"2020-07-10",
+		"expirationDate":"2020-07-31"
+	}
+}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Input_UserName: Automation
+Input_organizationStandardCode: 
+Input_stateProvinceCode: Test_StCD
+Input_stateProvinceName: Test_State_prov_Name1
+Input_effectiveDate2020-07-10
+Input_expirationDate2020-07-31
+</t>
+  </si>
+  <si>
+    <t>HTTP/1.1 400 Bad Request</t>
+  </si>
+  <si>
+    <t>400</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+{
+	"meta":
+	{
+		"version":"1.0.0",
+		"transactionId":"0baeb462-6951-4bae-b237-4e8db655f8bf",
+		"timeStamp":"2020-06-19 09:31:39",
+		"statusCode":"400",
+		"message":
+		{
+			"status":"ERROR",
+			"internalMessage":"Validation Failed",
+			"data":
+			{
+				"errorMessage":"Request Submitted With Error"
+			}
+		}
+	},
+	"errors":
+	[
+		{
+			"fieldName":"organizationStandardCode",
+			"message":" is a required field"
+		}
+	]
+}</t>
+  </si>
+  <si>
+    <t>TC_03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify that the ERROR message is received when the empty value is passed in JSON for stProvCd </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+{
+	"meta":
+	{
+		"userName":"Automation"
+	},
+	"stProvStd":
+	{
+		"organizationStandardCode":"TestOrg",
+		"stateProvinceCode":"",
+		"stateProvinceName":"Test_State_prov_Name2",
+		"effectiveDate":"2020-07-10",
+		"expirationDate":"2020-07-31"
+	}
+}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Input_UserName: Automation
+Input_organizationStandardCode: TestOrg
+Input_stateProvinceCode: 
+Input_stateProvinceName: Test_State_prov_Name2
+Input_effectiveDate2020-07-10
+Input_expirationDate2020-07-31
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+{
+	"meta":
+	{
+		"version":"1.0.0",
+		"transactionId":"b717552c-d4c2-405d-8a5d-8bd3da27fda6",
+		"timeStamp":"2020-06-19 09:31:40",
+		"statusCode":"400",
+		"message":
+		{
+			"status":"ERROR",
+			"internalMessage":"Validation Failed",
+			"data":
+			{
+				"errorMessage":"Request Submitted With Error"
+			}
+		}
+	},
+	"errors":
+	[
+		{
+			"fieldName":"stateProvinceCode",
+			"message":" is a required field"
+		}
+	]
+}</t>
+  </si>
+  <si>
+    <t>TC_04</t>
+  </si>
+  <si>
+    <t>Verify that the State Prov Cd service is successfully updated when empty value is passed for  stProvNm in JSON Request.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+{
+	"meta":
+	{
+		"userName":"Automation"
+	},
+	"stProvStd":
+	{
+		"organizationStandardCode":"TestOrg",
+		"stateProvinceCode":"Test_StCD",
+		"stateProvinceName":"",
+		"effectiveDate":"2021-07-10",
+		"expirationDate":"2021-07-31"
+	}
+}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Input_organizationStandardCode: TestOrg
+Input_stateProvinceCode: Test_StCD
+Input_stateProvinceName: 
+Input_effectiveDate2021-07-10
+Input_expirationDate2021-07-31
+Input_LastUpdateUserName:Automation
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DB_organizationStandardCode: TestOrg
+DB_stateProvinceCode: Test_StCD
+DB_stateProvinceName: 
+DB_effectiveDate2021-07-10
+DB_expirationDate2021-07-31
+DB_LastUpdateUserName:Automation
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+{
+	"meta":
+	{
+		"userName":"Automation",
+		"version":"1.0.0",
+		"transactionId":"1c238ea1-cd63-47c3-a718-32e975128023",
+		"timeStamp":"2020-06-19 09:31:42",
+		"statusCode":"200",
+		"message":
+		{
+			"status":"SUCCESS",
+			"internalMessage":"State Province Details successfully updated with stateProvinceCode :Test_StCD",
+			"data":null
+		}
+	},
+	"data":
+	{
+		"stateProvinceCode":"Test_StCD"
+	}
+}</t>
+  </si>
+  <si>
+    <t>TC_05</t>
+  </si>
+  <si>
+    <t>Verify that the ERROR message is received when  the empty value is passed in JSON for effectiveDate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+{
+	"meta":
+	{
+		"userName":"Automation"
+	},
+	"stProvStd":
+	{
+		"organizationStandardCode":"TestOrg",
+		"stateProvinceCode":"Test_StCD",
+		"stateProvinceName":"Test_State_prov_Name3",
+		"effectiveDate":"",
+		"expirationDate":"2021-07-31"
+	}
+}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Input_UserName: Automation
+Input_organizationStandardCode: TestOrg
+Input_stateProvinceCode: Test_StCD
+Input_stateProvinceName: Test_State_prov_Name3
+Input_effectiveDate
+Input_expirationDate2021-07-31
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+{
+	"meta":
+	{
+		"version":"1.0.0",
+		"transactionId":"82a5e694-4be4-40d0-834b-37859d2942af",
+		"timeStamp":"2020-06-19 09:31:44",
+		"statusCode":"400",
+		"message":
+		{
+			"status":"ERROR",
+			"internalMessage":"Exception",
+			"data":
+			{
+				"errorMessage":"Request Submitted With Error"
+			}
+		}
+	},
+	"errors":
+	[
+		{
+			"fieldName":"effectiveDate",
+			"message":" is a required field"
+		}
+	]
+}</t>
+  </si>
+  <si>
+    <t>TC_06</t>
+  </si>
+  <si>
+    <t>Verify that the State Prov Cd service is successfully updated when the empty value is passed in JSON for expirationDate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+{
+	"meta":
+	{
+		"userName":"Automation"
+	},
+	"stProvStd":
+	{
+		"organizationStandardCode":"TestOrg",
+		"stateProvinceCode":"Test_StCD",
+		"stateProvinceName":"Test_State_prov_Name4",
+		"effectiveDate":"2021-07-10",
+		"expirationDate":""
+	}
+}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Input_organizationStandardCode: TestOrg
+Input_stateProvinceCode: Test_StCD
+Input_stateProvinceName: Test_State_prov_Name4
+Input_effectiveDate2021-07-10
+Input_expirationDate9999-12-31
+Input_LastUpdateUserName:Automation
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DB_organizationStandardCode: TestOrg
+DB_stateProvinceCode: Test_StCD
+DB_stateProvinceName: Test_State_prov_Name4
+DB_effectiveDate2021-07-10
+DB_expirationDate9999-12-31
+DB_LastUpdateUserName:Automation
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+{
+	"meta":
+	{
+		"userName":"Automation",
+		"version":"1.0.0",
+		"transactionId":"2d37ed2b-b1c3-4831-be6b-0e0676beb4a8",
+		"timeStamp":"2020-06-19 09:31:46",
+		"statusCode":"200",
+		"message":
+		{
+			"status":"SUCCESS",
+			"internalMessage":"State Province Details successfully updated with stateProvinceCode :Test_StCD",
+			"data":null
+		}
+	},
+	"data":
+	{
+		"stateProvinceCode":"Test_StCD"
+	}
+}</t>
+  </si>
+  <si>
+    <t>TC_07</t>
+  </si>
+  <si>
+    <t>Verify that the ERROR message is received when invalid orgstdCd (Not exist in Geopl_org_std table) is passed in JSON</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+{
+	"meta":
+	{
+		"userName":"Automation"
+	},
+	"stProvStd":
+	{
+		"organizationStandardCode":"ORGNotExit",
+		"stateProvinceCode":"Test_StCD",
+		"stateProvinceName":"Test_State_prov_Name5",
+		"effectiveDate":"2020-07-10",
+		"expirationDate":"2020-07-31"
+	}
+}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Input_UserName: Automation
+Input_organizationStandardCode: ORGNotExit
+Input_stateProvinceCode: Test_StCD
+Input_stateProvinceName: Test_State_prov_Name5
+Input_effectiveDate2020-07-10
+Input_expirationDate2020-07-31
+</t>
+  </si>
+  <si>
+    <t>HTTP/1.1 404 Not Found</t>
+  </si>
+  <si>
+    <t>404</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+{
+	"meta":
+	{
+		"version":"1.0.0",
+		"transactionId":"026df770-3de3-4b85-bb3d-acf0cf0618c7",
+		"timeStamp":"2020-06-19 09:31:48",
+		"statusCode":"404",
+		"message":
+		{
+			"status":"ERROR",
+			"internalMessage":"Resource Not Found",
+			"data":
+			{
+				"errorMessage":"Request Submitted With Error"
+			}
+		}
+	},
+	"errors":
+	[
+		{
+			"fieldName":"organizationStandardCode",
+			"message":" is not a valid value"
+		}
+	]
+}</t>
+  </si>
+  <si>
+    <t>TC_08</t>
+  </si>
+  <si>
+    <t>Verify that the ERROR message is received when invalid effectiveDate is passed in JSON</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+{
+	"meta":
+	{
+		"userName":"Automation"
+	},
+	"stProvStd":
+	{
+		"organizationStandardCode":"TestOrg",
+		"stateProvinceCode":"Test_StCD",
+		"stateProvinceName":"Test_State_prov_Name6",
+		"effectiveDate":"2019-17-10",
+		"expirationDate":"2020-07-31"
+	}
+}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Input_UserName: Automation
+Input_organizationStandardCode: TestOrg
+Input_stateProvinceCode: Test_StCD
+Input_stateProvinceName: Test_State_prov_Name6
+Input_effectiveDate2019-17-10
+Input_expirationDate2020-07-31
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+{
+	"meta":
+	{
+		"version":"1.0.0",
+		"transactionId":"583d1708-e5f2-45b7-9417-1f056dfea8b6",
+		"timeStamp":"2020-06-19 09:31:50",
+		"statusCode":"400",
+		"message":
+		{
+			"status":"ERROR",
+			"internalMessage":"Json Parser Error",
+			"data":
+			{
+				"errorMessage":"Request Submitted With Error"
+			}
+		}
+	},
+	"errors":
+	[
+		{
+			"fieldName":"Error",
+			"message":"Invalid Date Format"
+		}
+	]
+}</t>
+  </si>
+  <si>
+    <t>TC_09</t>
+  </si>
+  <si>
+    <t>Verify that the ERROR message is received when invalid expirationDate is passed in JSON</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+{
+	"meta":
+	{
+		"userName":"Automation"
+	},
+	"stProvStd":
+	{
+		"organizationStandardCode":"TestOrg",
+		"stateProvinceCode":"Test_StCD",
+		"stateProvinceName":"Test_State_prov_Name7",
+		"effectiveDate":"2020-07-10",
+		"expirationDate":"2019-17-31"
+	}
+}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Input_UserName: Automation
+Input_organizationStandardCode: TestOrg
+Input_stateProvinceCode: Test_StCD
+Input_stateProvinceName: Test_State_prov_Name7
+Input_effectiveDate2020-07-10
+Input_expirationDate2019-17-31
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+{
+	"meta":
+	{
+		"version":"1.0.0",
+		"transactionId":"e045e100-dff2-4519-9d76-49acf17da4d3",
+		"timeStamp":"2020-06-19 09:31:51",
+		"statusCode":"400",
+		"message":
+		{
+			"status":"ERROR",
+			"internalMessage":"Json Parser Error",
+			"data":
+			{
+				"errorMessage":"Request Submitted With Error"
+			}
+		}
+	},
+	"errors":
+	[
+		{
+			"fieldName":"Error",
+			"message":"Invalid Date Format"
+		}
+	]
+}</t>
+  </si>
+  <si>
+    <t>TC_10</t>
+  </si>
+  <si>
+    <t>Verify that the ERROR message is received when the meta data section is not passed in JSON</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+{
+	"stProvStd":
+	{
+		"organizationStandardCode":"TestOrg",
+		"stateProvinceCode":"Test_StCD",
+		"stateProvinceName":"Test_State_prov_Name8",
+		"effectiveDate":"2020-07-10",
+		"expirationDate":"2020-07-31"
+	}
+}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Input_UserName: Automation
+Input_organizationStandardCode: TestOrg
+Input_stateProvinceCode: Test_StCD
+Input_stateProvinceName: Test_State_prov_Name8
+Input_effectiveDate2020-07-10
+Input_expirationDate2020-07-31
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+{
+	"meta":
+	{
+		"version":"1.0.0",
+		"transactionId":"6a22d9aa-33ea-4b06-ba6c-250fade05091",
+		"timeStamp":"2020-06-19 09:31:53",
+		"statusCode":"400",
+		"message":
+		{
+			"status":"ERROR",
+			"internalMessage":"Validation Failed",
+			"data":
+			{
+				"errorMessage":"Request Submitted With Error"
+			}
+		}
+	},
+	"errors":
+	[
+		{
+			"fieldName":"meta",
+			"message":" is a required field"
+		}
+	]
+}</t>
+  </si>
+  <si>
+    <t>TC_11</t>
+  </si>
+  <si>
+    <t>Verify that the ERROR message is received when the orgstdCd attribute is not passed in JSON</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+{
+	"meta":
+	{
+		"userName":"Automation"
+	},
+	"stProvStd":
+	{
+		"stateProvinceCode":"Test_StCD",
+		"stateProvinceName":"Test_State_prov_Name9",
+		"effectiveDate":"2020-07-10",
+		"expirationDate":"2020-07-31"
+	}
+}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Input_UserName: Automation
+Input_organizationStandardCode: 
+Input_stateProvinceCode: Test_StCD
+Input_stateProvinceName: Test_State_prov_Name9
+Input_effectiveDate2020-07-10
+Input_expirationDate2020-07-31
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+{
+	"meta":
+	{
+		"version":"1.0.0",
+		"transactionId":"ac8a5be9-659e-4949-a956-16dfa93d1626",
+		"timeStamp":"2020-06-19 09:31:54",
+		"statusCode":"400",
+		"message":
+		{
+			"status":"ERROR",
+			"internalMessage":"Validation Failed",
+			"data":
+			{
+				"errorMessage":"Request Submitted With Error"
+			}
+		}
+	},
+	"errors":
+	[
+		{
+			"fieldName":"organizationStandardCode",
+			"message":" is a required field"
+		}
+	]
+}</t>
+  </si>
+  <si>
+    <t>TC_12</t>
+  </si>
+  <si>
+    <t>Verify that the ERROR message is received when the stProvCd attribute is not passed in JSON</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+{
+	"meta":
+	{
+		"userName":"Automation"
+	},
+	"stProvStd":
+	{
+		"organizationStandardCode":"TestOrg",
+		"stateProvinceName":"Test_State_prov_Name10",
+		"effectiveDate":"2020-07-10",
+		"expirationDate":"2020-07-31"
+	}
+}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Input_UserName: Automation
+Input_organizationStandardCode: TestOrg
+Input_stateProvinceCode: 
+Input_stateProvinceName: Test_State_prov_Name10
+Input_effectiveDate2020-07-10
+Input_expirationDate2020-07-31
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+{
+	"meta":
+	{
+		"version":"1.0.0",
+		"transactionId":"9313f639-66a8-4751-93af-502da9158b5d",
+		"timeStamp":"2020-06-19 09:31:55",
+		"statusCode":"400",
+		"message":
+		{
+			"status":"ERROR",
+			"internalMessage":"Validation Failed",
+			"data":
+			{
+				"errorMessage":"Request Submitted With Error"
+			}
+		}
+	},
+	"errors":
+	[
+		{
+			"fieldName":"stateProvinceCode",
+			"message":" is a required field"
+		}
+	]
+}</t>
+  </si>
+  <si>
+    <t>TC_13</t>
+  </si>
+  <si>
+    <t>Verify that the State Prov Cd service is successfully updated when  stProvNm attributes IS NOT PASSED in JSON Request.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+{
+	"meta":
+	{
+		"userName":"Automation"
+	},
+	"stProvStd":
+	{
+		"organizationStandardCode":"TestOrg",
+		"stateProvinceCode":"Test_StCD",
+		"effectiveDate":"2021-07-10",
+		"expirationDate":"2021-07-31"
+	}
+}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+{
+	"meta":
+	{
+		"userName":"Automation",
+		"version":"1.0.0",
+		"transactionId":"d1420d11-be4b-4394-9771-b430883084e3",
+		"timeStamp":"2020-06-19 09:31:57",
+		"statusCode":"200",
+		"message":
+		{
+			"status":"SUCCESS",
+			"internalMessage":"State Province Details successfully updated with stateProvinceCode :Test_StCD",
+			"data":null
+		}
+	},
+	"data":
+	{
+		"stateProvinceCode":"Test_StCD"
+	}
+}</t>
+  </si>
+  <si>
+    <t>TC_14</t>
+  </si>
+  <si>
+    <t>Verify that the ERROR message is received when  the effectiveDate attribute is not passed in JSON</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+{
+	"meta":
+	{
+		"userName":"Automation"
+	},
+	"stProvStd":
+	{
+		"organizationStandardCode":"TestOrg",
+		"stateProvinceCode":"Test_StCD",
+		"stateProvinceName":"Test_State_prov_Name11",
+		"expirationDate":"2021-07-31"
+	}
+}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Input_UserName: Automation
+Input_organizationStandardCode: TestOrg
+Input_stateProvinceCode: Test_StCD
+Input_stateProvinceName: Test_State_prov_Name11
+Input_effectiveDate
+Input_expirationDate2021-07-31
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+{
+	"meta":
+	{
+		"version":"1.0.0",
+		"transactionId":"739a412f-7bf5-4c7b-9f0c-1b205b9b79a8",
+		"timeStamp":"2020-06-19 09:32:00",
+		"statusCode":"400",
+		"message":
+		{
+			"status":"ERROR",
+			"internalMessage":"Exception",
+			"data":
+			{
+				"errorMessage":"Request Submitted With Error"
+			}
+		}
+	},
+	"errors":
+	[
+		{
+			"fieldName":"effectiveDate",
+			"message":" is a required field"
+		}
+	]
+}</t>
+  </si>
+  <si>
+    <t>TC_15</t>
+  </si>
+  <si>
+    <t>Verify that the State Prov Cd service is successfully updated when the expirationDate attribute is not passed in JSON</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+{
+	"meta":
+	{
+		"userName":"Automation"
+	},
+	"stProvStd":
+	{
+		"organizationStandardCode":"TestOrg",
+		"stateProvinceCode":"Test_StCD",
+		"stateProvinceName":"Test_State_prov_Name12",
+		"effectiveDate":"2021-07-10"
+	}
+}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Input_organizationStandardCode: TestOrg
+Input_stateProvinceCode: Test_StCD
+Input_stateProvinceName: Test_State_prov_Name12
+Input_effectiveDate2021-07-10
+Input_expirationDate9999-12-31
+Input_LastUpdateUserName:Automation
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DB_organizationStandardCode: TestOrg
+DB_stateProvinceCode: Test_StCD
+DB_stateProvinceName: Test_State_prov_Name12
+DB_effectiveDate2021-07-10
+DB_expirationDate9999-12-31
+DB_LastUpdateUserName:Automation
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+{
+	"meta":
+	{
+		"userName":"Automation",
+		"version":"1.0.0",
+		"transactionId":"969cb7c0-4376-4633-8868-bbe85029e102",
+		"timeStamp":"2020-06-19 09:32:01",
+		"statusCode":"200",
+		"message":
+		{
+			"status":"SUCCESS",
+			"internalMessage":"State Province Details successfully updated with stateProvinceCode :Test_StCD",
+			"data":null
+		}
+	},
+	"data":
+	{
+		"stateProvinceCode":"Test_StCD"
+	}
+}</t>
+  </si>
+  <si>
+    <t>TC_16</t>
+  </si>
+  <si>
+    <t>Verify that the ERROR message is received when the user name is null or Empty in JSON</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+{
+	"meta":
+	{
+		"userName":""
+	},
+	"stProvStd":
+	{
+		"organizationStandardCode":"TestOrg",
+		"stateProvinceCode":"Test_StCD",
+		"stateProvinceName":"Test_State_prov_Name13",
+		"effectiveDate":"2020-07-10",
+		"expirationDate":"2020-07-31"
+	}
+}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Input_UserName: 
+Input_organizationStandardCode: TestOrg
+Input_stateProvinceCode: Test_StCD
+Input_stateProvinceName: Test_State_prov_Name13
+Input_effectiveDate2020-07-10
+Input_expirationDate2020-07-31
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+{
+	"meta":
+	{
+		"version":"1.0.0",
+		"transactionId":"7976e489-08a7-492e-9391-1ea4c0f9bbbb",
+		"timeStamp":"2020-06-19 09:32:04",
+		"statusCode":"400",
+		"message":
+		{
+			"status":"ERROR",
+			"internalMessage":"Validation Failed",
+			"data":
+			{
+				"errorMessage":"Request Submitted With Error"
+			}
+		}
+	},
+	"errors":
+	[
+		{
+			"fieldName":"userName",
+			"message":" is a required field"
+		}
+	]
+}</t>
+  </si>
+  <si>
+    <t>TC_17</t>
+  </si>
+  <si>
+    <t>Verify that the ERROR message is received when the orgstdCd is more than 10 characters length in JSON</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+{
+	"meta":
+	{
+		"userName":"Automation"
+	},
+	"stProvStd":
+	{
+		"organizationStandardCode":"ORG_Size _More_Than_10",
+		"stateProvinceCode":"Test_StCD",
+		"stateProvinceName":"Test_State_prov_Name14",
+		"effectiveDate":"2020-07-10",
+		"expirationDate":"2020-07-31"
+	}
+}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Input_UserName: Automation
+Input_organizationStandardCode: ORG_Size _More_Than_10
+Input_stateProvinceCode: Test_StCD
+Input_stateProvinceName: Test_State_prov_Name14
+Input_effectiveDate2020-07-10
+Input_expirationDate2020-07-31
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+{
+	"meta":
+	{
+		"version":"1.0.0",
+		"transactionId":"ff45abd7-8a23-4a2d-926d-24af2101ca19",
+		"timeStamp":"2020-06-19 09:32:06",
+		"statusCode":"400",
+		"message":
+		{
+			"status":"ERROR",
+			"internalMessage":"Validation Failed",
+			"data":
+			{
+				"errorMessage":"Request Submitted With Error"
+			}
+		}
+	},
+	"errors":
+	[
+		{
+			"fieldName":"organizationStandardCode",
+			"message":" cannot be greater than 10 characters"
+		}
+	]
+}</t>
+  </si>
+  <si>
+    <t>TC_18</t>
+  </si>
+  <si>
+    <t>Verify that the ERROR message is received when the  stProvCd is more than 10 characters length in JSON</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+{
+	"meta":
+	{
+		"userName":"Automation"
+	},
+	"stProvStd":
+	{
+		"organizationStandardCode":"TestOrg",
+		"stateProvinceCode":"stProvCd_More_Than_10_char",
+		"stateProvinceName":"Test_State_prov_Name15",
+		"effectiveDate":"2020-07-10",
+		"expirationDate":"2020-07-31"
+	}
+}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Input_UserName: Automation
+Input_organizationStandardCode: TestOrg
+Input_stateProvinceCode: stProvCd_More_Than_10_char
+Input_stateProvinceName: Test_State_prov_Name15
+Input_effectiveDate2020-07-10
+Input_expirationDate2020-07-31
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+{
+	"meta":
+	{
+		"version":"1.0.0",
+		"transactionId":"90e3a02e-1972-49fa-b76e-6fb271466374",
+		"timeStamp":"2020-06-19 09:32:07",
+		"statusCode":"400",
+		"message":
+		{
+			"status":"ERROR",
+			"internalMessage":"Validation Failed",
+			"data":
+			{
+				"errorMessage":"Request Submitted With Error"
+			}
+		}
+	},
+	"errors":
+	[
+		{
+			"fieldName":"stateProvinceCode",
+			"message":" cannot be greater than 10 characters"
+		}
+	]
+}</t>
+  </si>
+  <si>
+    <t>TC_19</t>
+  </si>
+  <si>
+    <t>Verify that the ERROR message is received when the  stProvNm is more than 120 characters length in JSON</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+{
+	"meta":
+	{
+		"userName":"Automation"
+	},
+	"stProvStd":
+	{
+		"organizationStandardCode":"TestOrg",
+		"stateProvinceCode":"Test_StCD",
+		"stateProvinceName":"stProvNm_Size_More_Than_120_Char_Test_State_prov_NameTest_State_prov_NameTest_State_prov_NameTest_State_prov_NameTest_State_prov_NameTest_State_prov_NameTest_State_prov_NameTest_State_prov_NameTest_State_prov_NameTest_State_prov_NameTest_State_prov_NameTest_State_prov_Name",
+		"effectiveDate":"2020-07-10",
+		"expirationDate":"2020-07-31"
+	}
+}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Input_UserName: Automation
+Input_organizationStandardCode: TestOrg
+Input_stateProvinceCode: Test_StCD
+Input_stateProvinceName: stProvNm_Size_More_Than_120_Char_Test_State_prov_NameTest_State_prov_NameTest_State_prov_NameTest_State_prov_NameTest_State_prov_NameTest_State_prov_NameTest_State_prov_NameTest_State_prov_NameTest_State_prov_NameTest_State_prov_NameTest_State_prov_NameTest_State_prov_Name
+Input_effectiveDate2020-07-10
+Input_expirationDate2020-07-31
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+{
+	"meta":
+	{
+		"version":"1.0.0",
+		"transactionId":"49d6d9e3-a974-4633-bb72-36142e311e2a",
+		"timeStamp":"2020-06-19 09:32:08",
+		"statusCode":"400",
+		"message":
+		{
+			"status":"ERROR",
+			"internalMessage":"Validation Failed",
+			"data":
+			{
+				"errorMessage":"Request Submitted With Error"
+			}
+		}
+	},
+	"errors":
+	[
+		{
+			"fieldName":"stateProvinceName",
+			"message":" cannot be greater than 120 characters"
+		}
+	]
+}</t>
+  </si>
+  <si>
+    <t>TC_20</t>
+  </si>
+  <si>
+    <t>Verify that the ERROR message is received when the effectiveDate is other than timestamp format in JSON</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+{
+	"meta":
+	{
+		"userName":"Automation"
+	},
+	"stProvStd":
+	{
+		"organizationStandardCode":"TestOrg",
+		"stateProvinceCode":"Test_StCD",
+		"stateProvinceName":"Test_State_prov_Name16",
+		"effectiveDate":"dsfghsgds",
+		"expirationDate":"2020-07-31"
+	}
+}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Input_UserName: Automation
+Input_organizationStandardCode: TestOrg
+Input_stateProvinceCode: Test_StCD
+Input_stateProvinceName: Test_State_prov_Name16
+Input_effectiveDatedsfghsgds
+Input_expirationDate2020-07-31
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+{
+	"meta":
+	{
+		"version":"1.0.0",
+		"transactionId":"1dcfbc0b-a207-44bc-b502-f8f651116d45",
+		"timeStamp":"2020-06-19 09:32:10",
+		"statusCode":"400",
+		"message":
+		{
+			"status":"ERROR",
+			"internalMessage":"Json Parser Error",
+			"data":
+			{
+				"errorMessage":"Request Submitted With Error"
+			}
+		}
+	},
+	"errors":
+	[
+		{
+			"fieldName":"Error",
+			"message":"Invalid Date Format"
+		}
+	]
+}</t>
+  </si>
+  <si>
+    <t>TC_21</t>
+  </si>
+  <si>
+    <t>Verify that the ERROR message is received when the expirationDate is other than timestamp format in JSON</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+{
+	"meta":
+	{
+		"userName":"Automation"
+	},
+	"stProvStd":
+	{
+		"organizationStandardCode":"TestOrg",
+		"stateProvinceCode":"Test_StCD",
+		"stateProvinceName":"Test_State_prov_Name17",
+		"effectiveDate":"2020-07-10",
+		"expirationDate":"cxfhgfgsfdd"
+	}
+}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Input_UserName: Automation
+Input_organizationStandardCode: TestOrg
+Input_stateProvinceCode: Test_StCD
+Input_stateProvinceName: Test_State_prov_Name17
+Input_effectiveDate2020-07-10
+Input_expirationDatecxfhgfgsfdd
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+{
+	"meta":
+	{
+		"version":"1.0.0",
+		"transactionId":"ad1dd390-ba05-4076-8928-34504f259c49",
+		"timeStamp":"2020-06-19 09:32:11",
+		"statusCode":"400",
+		"message":
+		{
+			"status":"ERROR",
+			"internalMessage":"Json Parser Error",
+			"data":
+			{
+				"errorMessage":"Request Submitted With Error"
+			}
+		}
+	},
+	"errors":
+	[
+		{
+			"fieldName":"Error",
+			"message":"Invalid Date Format"
+		}
+	]
+}</t>
+  </si>
+  <si>
+    <t>TC_22</t>
+  </si>
+  <si>
+    <t>Verify that the ERROR message is received when the User Name is more than 25 characters length in JSON</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+{
+	"meta":
+	{
+		"userName":"AutomationAutomationAutomationAutomation"
+	},
+	"stProvStd":
+	{
+		"organizationStandardCode":"TestOrg",
+		"stateProvinceCode":"Test_StCD",
+		"stateProvinceName":"Test_State_prov_Name18",
+		"effectiveDate":"2020-07-10",
+		"expirationDate":"2020-07-31"
+	}
+}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Input_UserName: AutomationAutomationAutomationAutomation
+Input_organizationStandardCode: TestOrg
+Input_stateProvinceCode: Test_StCD
+Input_stateProvinceName: Test_State_prov_Name18
+Input_effectiveDate2020-07-10
+Input_expirationDate2020-07-31
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+{
+	"meta":
+	{
+		"version":"1.0.0",
+		"transactionId":"f327bee9-77d8-4924-b276-0e88e9c2a4a6",
+		"timeStamp":"2020-06-19 09:32:13",
+		"statusCode":"400",
+		"message":
+		{
+			"status":"ERROR",
+			"internalMessage":"Validation Failed",
+			"data":
+			{
+				"errorMessage":"Request Submitted With Error"
+			}
+		}
+	},
+	"errors":
+	[
+		{
+			"fieldName":"userName",
+			"message":" cannot be greater than 25 characters"
+		}
+	]
+}</t>
+  </si>
+  <si>
+    <t>TC_23</t>
+  </si>
+  <si>
+    <t>Verify that the Exception is received when the URI is not correct</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+{
+	"meta":
+	{
+		"userName":"Automation"
+	},
+	"stProvStd":
+	{
+		"organizationStandardCode":"TestOrg",
+		"stateProvinceCode":"Test_StCD",
+		"stateProvinceName":"Test_State_prov_Name19",
+		"effectiveDate":"2020-07-10",
+		"expirationDate":"2020-07-31"
+	}
+}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Input_UserName: Automation
+Input_organizationStandardCode: TestOrg
+Input_stateProvinceCode: Test_StCD
+Input_stateProvinceName: Test_State_prov_Name19
+Input_effectiveDate2020-07-10
+Input_expirationDate2020-07-31
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+{
+	"meta":
+	{
+		"version":"1.0.0",
+		"transactionId":"2cfdb249-133c-47b2-b42e-0f8fdab22716",
+		"timeStamp":"2020-06-19 09:32:14",
+		"statusCode":"404",
+		"message":
+		{
+			"status":"ERROR",
+			"internalMessage":"Exception",
+			"data":
+			{
+				"errorMessage":"Request Submitted With Error"
+			}
+		}
+	},
+	"errors":
+	[
+		{
+			"fieldName":"Error",
+			"message":"Could not find the PUT method for URL /v1/stP"
+		}
+	]
+}</t>
+  </si>
+  <si>
+    <t>TC_24</t>
+  </si>
+  <si>
+    <t>Verify that the ERROR message is received when if any comma/bracket is missing in request then we will get the JSON parse error: Unexpected character in response.</t>
+  </si>
+  <si>
+    <t>Post</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+{
+	"meta":
+	{
+		"userName":"Automation"
+	},
+	"stProvStd":
+	{
+		"organizationStandardCode":"TestOrg",
+		"stateProvinceCode":"Test_StCD",
+		"stateProvinceName":"Test_State_prov_Name4",
+		"effectiveDate":"2021-07-10" "expirationDate":"2021-07-31"
+	}
+}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Input_UserName: Automation
+Input_organizationStandardCode: TestOrg
+Input_stateProvinceCode: Test_StCD
+Input_stateProvinceName: Test_State_prov_Name4
+Input_effectiveDate2021-07-10
+Input_expirationDate2021-07-31
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+{
+	"meta":
+	{
+		"version":"1.0.0",
+		"transactionId":"168eb776-f23a-4603-b146-d6fc8673c0b4",
+		"timeStamp":"2020-06-19 09:32:16",
+		"statusCode":"400",
+		"message":
+		{
+			"status":"ERROR",
+			"internalMessage":"Json Parser Error",
+			"data":
+			{
+				"errorMessage":"Request Submitted With Error"
+			}
+		}
+	},
+	"errors":
+	[
+		{
+			"fieldName":"Error",
+			"message":"JSON parse error: Unexpected character ('\"' (code 34)): was expecting comma to separate Object entries"
+		}
+	]
+}</t>
+  </si>
+  <si>
+    <t>TC_25</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Verify that the ERROR message is received when we use POST url but selecting GET method.</t>
+  </si>
+  <si>
+    <t>HTTP/1.1 405 Method Not Allowed</t>
+  </si>
+  <si>
+    <t>405</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+{
+	"meta":
+	{
+		"version":"1.0.0",
+		"transactionId":"157f31e4-5a04-4749-86e0-8bb09cf95aa4",
+		"timeStamp":"2020-06-19 09:32:17",
+		"statusCode":"405",
+		"message":
+		{
+			"status":"ERROR",
+			"internalMessage":"No Such API Exists",
+			"data":
+			{
+				"errorMessage":"Request Submitted With Error"
+			}
+		}
+	},
+	"errors":
+	[
+		{
+			"fieldName":"Error",
+			"message":"Request method 'GET' not supported"
+		}
+	]
+}</t>
+  </si>
+  <si>
+    <t>TC_26</t>
+  </si>
+  <si>
+    <t>Verify that the ERROR message is received when missing HTTP Header X-CSR-SECURITY_TOKEN.</t>
+  </si>
+  <si>
+    <t>HTTP/1.1 401 Unauthorized</t>
+  </si>
+  <si>
+    <t>401</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+{
+	"meta":
+	{
+		"version":"1.0.0",
+		"timeStamp":"2020-06-19T09:32:19.076+0000",
+		"statusCode":"401",
+		"message":
+		{
+			"status":"ERROR",
+			"internalMessage":"Security Error",
+			"data":
+			{
+				"errorMessage":"Exception occurred in Security Filter"
+			}
+		}
+	},
+	"errors":
+	[
+		{
+			"fieldName":"NA",
+			"message":"Missing HTTP header X-CSR-SECURITY_TOKEN"
+		}
+	]
+}</t>
   </si>
 </sst>
 </file>
@@ -154,7 +1646,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="24">
+  <fonts count="310">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
@@ -167,6 +1659,1436 @@
       <sz val="11.0"/>
       <color indexed="9"/>
       <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -345,7 +3267,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="310">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFill="true" applyFont="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
@@ -414,6 +3336,864 @@
       <alignment wrapText="true" horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="61" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="64" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="65" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="66" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="67" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="68" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="69" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="70" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="71" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="72" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="73" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="74" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="75" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="76" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="77" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="78" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="79" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="80" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="81" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="82" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="83" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="84" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="85" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="86" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="87" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="88" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="89" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="90" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="91" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="92" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="93" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="94" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="95" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="96" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="97" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="98" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="99" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="100" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="101" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="102" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="103" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="104" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="105" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="106" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="107" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="108" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="109" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="110" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="111" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="112" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="113" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="114" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="115" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="116" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="117" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="118" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="119" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="120" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="121" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="122" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="123" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="124" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="125" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="126" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="127" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="128" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="129" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="130" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="131" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="132" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="133" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="134" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="135" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="136" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="137" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="138" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="139" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="140" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="141" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="142" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="143" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="144" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="145" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="146" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="147" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="148" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="149" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="150" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="151" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="152" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="153" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="154" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="155" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="156" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="157" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="158" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="159" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="160" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="161" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="162" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="163" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="164" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="165" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="166" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="167" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="168" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="169" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="170" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="171" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="172" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="173" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="174" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="175" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="176" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="177" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="178" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="179" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="180" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="181" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="182" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="183" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="184" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="185" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="186" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="187" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="188" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="189" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="190" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="191" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="192" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="193" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="194" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="195" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="196" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="197" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="198" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="199" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="200" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="201" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="202" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="203" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="204" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="205" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="206" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="207" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="208" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="209" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="210" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="211" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="212" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="213" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="214" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="215" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="216" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="217" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="218" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="219" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="220" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="221" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="222" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="223" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="224" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="225" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="226" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="227" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="228" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="229" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="230" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="231" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="232" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="233" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="234" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="235" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="236" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="237" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="238" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="239" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="240" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="241" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="242" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="243" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="244" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="245" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="246" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="247" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="248" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="249" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="250" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="251" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="252" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="253" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="254" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="255" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="256" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="257" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="258" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="259" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="260" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="261" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="262" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="263" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="264" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="265" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="266" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="267" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="268" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="269" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="270" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="271" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="272" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="273" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="274" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="275" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="276" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="277" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="278" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="279" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="280" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="281" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="282" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="283" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="284" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="285" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="286" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="287" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="288" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="289" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="290" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="291" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="292" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="293" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="294" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="295" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="296" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="297" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="298" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="299" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="300" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="301" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="302" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="303" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="304" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="305" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="306" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="307" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="308" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="309" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
       <alignment wrapText="true" horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
@@ -548,6 +4328,942 @@
       </c>
       <c r="L3"/>
     </row>
+    <row r="4">
+      <c r="A4" t="s" s="24">
+        <v>26</v>
+      </c>
+      <c r="B4" t="s" s="25">
+        <v>27</v>
+      </c>
+      <c r="C4" t="s" s="26">
+        <v>28</v>
+      </c>
+      <c r="D4" t="s" s="27">
+        <v>29</v>
+      </c>
+      <c r="E4" t="s" s="28">
+        <v>21</v>
+      </c>
+      <c r="F4" t="s" s="29">
+        <v>21</v>
+      </c>
+      <c r="G4" t="s" s="30">
+        <v>21</v>
+      </c>
+      <c r="H4" t="s" s="31">
+        <v>21</v>
+      </c>
+      <c r="I4" t="s" s="32">
+        <v>30</v>
+      </c>
+      <c r="J4" t="s" s="33">
+        <v>20</v>
+      </c>
+      <c r="K4" t="s" s="34">
+        <v>21</v>
+      </c>
+      <c r="L4"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="35">
+        <v>31</v>
+      </c>
+      <c r="B5" t="s" s="36">
+        <v>32</v>
+      </c>
+      <c r="C5" t="s" s="37">
+        <v>13</v>
+      </c>
+      <c r="D5" t="s" s="38">
+        <v>33</v>
+      </c>
+      <c r="E5" t="s" s="39">
+        <v>34</v>
+      </c>
+      <c r="F5" t="s" s="40">
+        <v>29</v>
+      </c>
+      <c r="G5" t="s" s="41">
+        <v>35</v>
+      </c>
+      <c r="H5" t="s" s="42">
+        <v>36</v>
+      </c>
+      <c r="I5" t="s" s="43">
+        <v>37</v>
+      </c>
+      <c r="J5" t="s" s="44">
+        <v>20</v>
+      </c>
+      <c r="K5" t="s" s="45">
+        <v>21</v>
+      </c>
+      <c r="L5"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="46">
+        <v>38</v>
+      </c>
+      <c r="B6" t="s" s="47">
+        <v>39</v>
+      </c>
+      <c r="C6" t="s" s="48">
+        <v>13</v>
+      </c>
+      <c r="D6" t="s" s="49">
+        <v>40</v>
+      </c>
+      <c r="E6" t="s" s="50">
+        <v>41</v>
+      </c>
+      <c r="F6" t="s" s="51">
+        <v>29</v>
+      </c>
+      <c r="G6" t="s" s="52">
+        <v>35</v>
+      </c>
+      <c r="H6" t="s" s="53">
+        <v>36</v>
+      </c>
+      <c r="I6" t="s" s="54">
+        <v>42</v>
+      </c>
+      <c r="J6" t="s" s="55">
+        <v>20</v>
+      </c>
+      <c r="K6" t="s" s="56">
+        <v>21</v>
+      </c>
+      <c r="L6"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="57">
+        <v>43</v>
+      </c>
+      <c r="B7" t="s" s="58">
+        <v>44</v>
+      </c>
+      <c r="C7" t="s" s="59">
+        <v>13</v>
+      </c>
+      <c r="D7" t="s" s="60">
+        <v>45</v>
+      </c>
+      <c r="E7" t="s" s="61">
+        <v>46</v>
+      </c>
+      <c r="F7" t="s" s="62">
+        <v>47</v>
+      </c>
+      <c r="G7" t="s" s="63">
+        <v>17</v>
+      </c>
+      <c r="H7" t="s" s="64">
+        <v>18</v>
+      </c>
+      <c r="I7" t="s" s="65">
+        <v>48</v>
+      </c>
+      <c r="J7" t="s" s="66">
+        <v>20</v>
+      </c>
+      <c r="K7" t="s" s="67">
+        <v>21</v>
+      </c>
+      <c r="L7"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="68">
+        <v>49</v>
+      </c>
+      <c r="B8" t="s" s="69">
+        <v>50</v>
+      </c>
+      <c r="C8" t="s" s="70">
+        <v>13</v>
+      </c>
+      <c r="D8" t="s" s="71">
+        <v>51</v>
+      </c>
+      <c r="E8" t="s" s="72">
+        <v>52</v>
+      </c>
+      <c r="F8" t="s" s="73">
+        <v>29</v>
+      </c>
+      <c r="G8" t="s" s="74">
+        <v>35</v>
+      </c>
+      <c r="H8" t="s" s="75">
+        <v>36</v>
+      </c>
+      <c r="I8" t="s" s="76">
+        <v>53</v>
+      </c>
+      <c r="J8" t="s" s="77">
+        <v>20</v>
+      </c>
+      <c r="K8" t="s" s="78">
+        <v>21</v>
+      </c>
+      <c r="L8"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="79">
+        <v>54</v>
+      </c>
+      <c r="B9" t="s" s="80">
+        <v>55</v>
+      </c>
+      <c r="C9" t="s" s="81">
+        <v>13</v>
+      </c>
+      <c r="D9" t="s" s="82">
+        <v>56</v>
+      </c>
+      <c r="E9" t="s" s="83">
+        <v>57</v>
+      </c>
+      <c r="F9" t="s" s="84">
+        <v>58</v>
+      </c>
+      <c r="G9" t="s" s="85">
+        <v>17</v>
+      </c>
+      <c r="H9" t="s" s="86">
+        <v>18</v>
+      </c>
+      <c r="I9" t="s" s="87">
+        <v>59</v>
+      </c>
+      <c r="J9" t="s" s="88">
+        <v>20</v>
+      </c>
+      <c r="K9" t="s" s="89">
+        <v>21</v>
+      </c>
+      <c r="L9"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="90">
+        <v>60</v>
+      </c>
+      <c r="B10" t="s" s="91">
+        <v>61</v>
+      </c>
+      <c r="C10" t="s" s="92">
+        <v>13</v>
+      </c>
+      <c r="D10" t="s" s="93">
+        <v>62</v>
+      </c>
+      <c r="E10" t="s" s="94">
+        <v>63</v>
+      </c>
+      <c r="F10" t="s" s="95">
+        <v>29</v>
+      </c>
+      <c r="G10" t="s" s="96">
+        <v>64</v>
+      </c>
+      <c r="H10" t="s" s="97">
+        <v>65</v>
+      </c>
+      <c r="I10" t="s" s="98">
+        <v>66</v>
+      </c>
+      <c r="J10" t="s" s="99">
+        <v>20</v>
+      </c>
+      <c r="K10" t="s" s="100">
+        <v>21</v>
+      </c>
+      <c r="L10"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="101">
+        <v>67</v>
+      </c>
+      <c r="B11" t="s" s="102">
+        <v>68</v>
+      </c>
+      <c r="C11" t="s" s="103">
+        <v>13</v>
+      </c>
+      <c r="D11" t="s" s="104">
+        <v>69</v>
+      </c>
+      <c r="E11" t="s" s="105">
+        <v>70</v>
+      </c>
+      <c r="F11" t="s" s="106">
+        <v>29</v>
+      </c>
+      <c r="G11" t="s" s="107">
+        <v>35</v>
+      </c>
+      <c r="H11" t="s" s="108">
+        <v>36</v>
+      </c>
+      <c r="I11" t="s" s="109">
+        <v>71</v>
+      </c>
+      <c r="J11" t="s" s="110">
+        <v>20</v>
+      </c>
+      <c r="K11" t="s" s="111">
+        <v>21</v>
+      </c>
+      <c r="L11"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="112">
+        <v>72</v>
+      </c>
+      <c r="B12" t="s" s="113">
+        <v>73</v>
+      </c>
+      <c r="C12" t="s" s="114">
+        <v>13</v>
+      </c>
+      <c r="D12" t="s" s="115">
+        <v>74</v>
+      </c>
+      <c r="E12" t="s" s="116">
+        <v>75</v>
+      </c>
+      <c r="F12" t="s" s="117">
+        <v>29</v>
+      </c>
+      <c r="G12" t="s" s="118">
+        <v>35</v>
+      </c>
+      <c r="H12" t="s" s="119">
+        <v>36</v>
+      </c>
+      <c r="I12" t="s" s="120">
+        <v>76</v>
+      </c>
+      <c r="J12" t="s" s="121">
+        <v>20</v>
+      </c>
+      <c r="K12" t="s" s="122">
+        <v>21</v>
+      </c>
+      <c r="L12"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="123">
+        <v>77</v>
+      </c>
+      <c r="B13" t="s" s="124">
+        <v>78</v>
+      </c>
+      <c r="C13" t="s" s="125">
+        <v>13</v>
+      </c>
+      <c r="D13" t="s" s="126">
+        <v>79</v>
+      </c>
+      <c r="E13" t="s" s="127">
+        <v>80</v>
+      </c>
+      <c r="F13" t="s" s="128">
+        <v>29</v>
+      </c>
+      <c r="G13" t="s" s="129">
+        <v>35</v>
+      </c>
+      <c r="H13" t="s" s="130">
+        <v>36</v>
+      </c>
+      <c r="I13" t="s" s="131">
+        <v>81</v>
+      </c>
+      <c r="J13" t="s" s="132">
+        <v>20</v>
+      </c>
+      <c r="K13" t="s" s="133">
+        <v>21</v>
+      </c>
+      <c r="L13"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="s" s="134">
+        <v>82</v>
+      </c>
+      <c r="B14" t="s" s="135">
+        <v>83</v>
+      </c>
+      <c r="C14" t="s" s="136">
+        <v>13</v>
+      </c>
+      <c r="D14" t="s" s="137">
+        <v>84</v>
+      </c>
+      <c r="E14" t="s" s="138">
+        <v>85</v>
+      </c>
+      <c r="F14" t="s" s="139">
+        <v>29</v>
+      </c>
+      <c r="G14" t="s" s="140">
+        <v>35</v>
+      </c>
+      <c r="H14" t="s" s="141">
+        <v>36</v>
+      </c>
+      <c r="I14" t="s" s="142">
+        <v>86</v>
+      </c>
+      <c r="J14" t="s" s="143">
+        <v>20</v>
+      </c>
+      <c r="K14" t="s" s="144">
+        <v>21</v>
+      </c>
+      <c r="L14"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="s" s="145">
+        <v>87</v>
+      </c>
+      <c r="B15" t="s" s="146">
+        <v>88</v>
+      </c>
+      <c r="C15" t="s" s="147">
+        <v>13</v>
+      </c>
+      <c r="D15" t="s" s="148">
+        <v>89</v>
+      </c>
+      <c r="E15" t="s" s="149">
+        <v>90</v>
+      </c>
+      <c r="F15" t="s" s="150">
+        <v>29</v>
+      </c>
+      <c r="G15" t="s" s="151">
+        <v>35</v>
+      </c>
+      <c r="H15" t="s" s="152">
+        <v>36</v>
+      </c>
+      <c r="I15" t="s" s="153">
+        <v>91</v>
+      </c>
+      <c r="J15" t="s" s="154">
+        <v>20</v>
+      </c>
+      <c r="K15" t="s" s="155">
+        <v>21</v>
+      </c>
+      <c r="L15"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="156">
+        <v>92</v>
+      </c>
+      <c r="B16" t="s" s="157">
+        <v>93</v>
+      </c>
+      <c r="C16" t="s" s="158">
+        <v>13</v>
+      </c>
+      <c r="D16" t="s" s="159">
+        <v>94</v>
+      </c>
+      <c r="E16" t="s" s="160">
+        <v>46</v>
+      </c>
+      <c r="F16" t="s" s="161">
+        <v>47</v>
+      </c>
+      <c r="G16" t="s" s="162">
+        <v>17</v>
+      </c>
+      <c r="H16" t="s" s="163">
+        <v>18</v>
+      </c>
+      <c r="I16" t="s" s="164">
+        <v>95</v>
+      </c>
+      <c r="J16" t="s" s="165">
+        <v>20</v>
+      </c>
+      <c r="K16" t="s" s="166">
+        <v>21</v>
+      </c>
+      <c r="L16"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="s" s="167">
+        <v>96</v>
+      </c>
+      <c r="B17" t="s" s="168">
+        <v>97</v>
+      </c>
+      <c r="C17" t="s" s="169">
+        <v>13</v>
+      </c>
+      <c r="D17" t="s" s="170">
+        <v>98</v>
+      </c>
+      <c r="E17" t="s" s="171">
+        <v>99</v>
+      </c>
+      <c r="F17" t="s" s="172">
+        <v>29</v>
+      </c>
+      <c r="G17" t="s" s="173">
+        <v>35</v>
+      </c>
+      <c r="H17" t="s" s="174">
+        <v>36</v>
+      </c>
+      <c r="I17" t="s" s="175">
+        <v>100</v>
+      </c>
+      <c r="J17" t="s" s="176">
+        <v>20</v>
+      </c>
+      <c r="K17" t="s" s="177">
+        <v>21</v>
+      </c>
+      <c r="L17"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="s" s="178">
+        <v>101</v>
+      </c>
+      <c r="B18" t="s" s="179">
+        <v>102</v>
+      </c>
+      <c r="C18" t="s" s="180">
+        <v>13</v>
+      </c>
+      <c r="D18" t="s" s="181">
+        <v>103</v>
+      </c>
+      <c r="E18" t="s" s="182">
+        <v>104</v>
+      </c>
+      <c r="F18" t="s" s="183">
+        <v>105</v>
+      </c>
+      <c r="G18" t="s" s="184">
+        <v>17</v>
+      </c>
+      <c r="H18" t="s" s="185">
+        <v>18</v>
+      </c>
+      <c r="I18" t="s" s="186">
+        <v>106</v>
+      </c>
+      <c r="J18" t="s" s="187">
+        <v>20</v>
+      </c>
+      <c r="K18" t="s" s="188">
+        <v>21</v>
+      </c>
+      <c r="L18"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="189">
+        <v>107</v>
+      </c>
+      <c r="B19" t="s" s="190">
+        <v>108</v>
+      </c>
+      <c r="C19" t="s" s="191">
+        <v>13</v>
+      </c>
+      <c r="D19" t="s" s="192">
+        <v>109</v>
+      </c>
+      <c r="E19" t="s" s="193">
+        <v>110</v>
+      </c>
+      <c r="F19" t="s" s="194">
+        <v>29</v>
+      </c>
+      <c r="G19" t="s" s="195">
+        <v>35</v>
+      </c>
+      <c r="H19" t="s" s="196">
+        <v>36</v>
+      </c>
+      <c r="I19" t="s" s="197">
+        <v>111</v>
+      </c>
+      <c r="J19" t="s" s="198">
+        <v>20</v>
+      </c>
+      <c r="K19" t="s" s="199">
+        <v>21</v>
+      </c>
+      <c r="L19"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="200">
+        <v>112</v>
+      </c>
+      <c r="B20" t="s" s="201">
+        <v>113</v>
+      </c>
+      <c r="C20" t="s" s="202">
+        <v>13</v>
+      </c>
+      <c r="D20" t="s" s="203">
+        <v>114</v>
+      </c>
+      <c r="E20" t="s" s="204">
+        <v>115</v>
+      </c>
+      <c r="F20" t="s" s="205">
+        <v>29</v>
+      </c>
+      <c r="G20" t="s" s="206">
+        <v>35</v>
+      </c>
+      <c r="H20" t="s" s="207">
+        <v>36</v>
+      </c>
+      <c r="I20" t="s" s="208">
+        <v>116</v>
+      </c>
+      <c r="J20" t="s" s="209">
+        <v>20</v>
+      </c>
+      <c r="K20" t="s" s="210">
+        <v>21</v>
+      </c>
+      <c r="L20"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="s" s="211">
+        <v>117</v>
+      </c>
+      <c r="B21" t="s" s="212">
+        <v>118</v>
+      </c>
+      <c r="C21" t="s" s="213">
+        <v>13</v>
+      </c>
+      <c r="D21" t="s" s="214">
+        <v>119</v>
+      </c>
+      <c r="E21" t="s" s="215">
+        <v>120</v>
+      </c>
+      <c r="F21" t="s" s="216">
+        <v>29</v>
+      </c>
+      <c r="G21" t="s" s="217">
+        <v>35</v>
+      </c>
+      <c r="H21" t="s" s="218">
+        <v>36</v>
+      </c>
+      <c r="I21" t="s" s="219">
+        <v>121</v>
+      </c>
+      <c r="J21" t="s" s="220">
+        <v>20</v>
+      </c>
+      <c r="K21" t="s" s="221">
+        <v>21</v>
+      </c>
+      <c r="L21"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="s" s="222">
+        <v>122</v>
+      </c>
+      <c r="B22" t="s" s="223">
+        <v>123</v>
+      </c>
+      <c r="C22" t="s" s="224">
+        <v>13</v>
+      </c>
+      <c r="D22" t="s" s="225">
+        <v>124</v>
+      </c>
+      <c r="E22" t="s" s="226">
+        <v>125</v>
+      </c>
+      <c r="F22" t="s" s="227">
+        <v>29</v>
+      </c>
+      <c r="G22" t="s" s="228">
+        <v>35</v>
+      </c>
+      <c r="H22" t="s" s="229">
+        <v>36</v>
+      </c>
+      <c r="I22" t="s" s="230">
+        <v>126</v>
+      </c>
+      <c r="J22" t="s" s="231">
+        <v>20</v>
+      </c>
+      <c r="K22" t="s" s="232">
+        <v>21</v>
+      </c>
+      <c r="L22"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="s" s="233">
+        <v>127</v>
+      </c>
+      <c r="B23" t="s" s="234">
+        <v>128</v>
+      </c>
+      <c r="C23" t="s" s="235">
+        <v>13</v>
+      </c>
+      <c r="D23" t="s" s="236">
+        <v>129</v>
+      </c>
+      <c r="E23" t="s" s="237">
+        <v>130</v>
+      </c>
+      <c r="F23" t="s" s="238">
+        <v>29</v>
+      </c>
+      <c r="G23" t="s" s="239">
+        <v>35</v>
+      </c>
+      <c r="H23" t="s" s="240">
+        <v>36</v>
+      </c>
+      <c r="I23" t="s" s="241">
+        <v>131</v>
+      </c>
+      <c r="J23" t="s" s="242">
+        <v>20</v>
+      </c>
+      <c r="K23" t="s" s="243">
+        <v>21</v>
+      </c>
+      <c r="L23"/>
+    </row>
+    <row r="24">
+      <c r="A24" t="s" s="244">
+        <v>132</v>
+      </c>
+      <c r="B24" t="s" s="245">
+        <v>133</v>
+      </c>
+      <c r="C24" t="s" s="246">
+        <v>13</v>
+      </c>
+      <c r="D24" t="s" s="247">
+        <v>134</v>
+      </c>
+      <c r="E24" t="s" s="248">
+        <v>135</v>
+      </c>
+      <c r="F24" t="s" s="249">
+        <v>29</v>
+      </c>
+      <c r="G24" t="s" s="250">
+        <v>35</v>
+      </c>
+      <c r="H24" t="s" s="251">
+        <v>36</v>
+      </c>
+      <c r="I24" t="s" s="252">
+        <v>136</v>
+      </c>
+      <c r="J24" t="s" s="253">
+        <v>20</v>
+      </c>
+      <c r="K24" t="s" s="254">
+        <v>21</v>
+      </c>
+      <c r="L24"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="255">
+        <v>137</v>
+      </c>
+      <c r="B25" t="s" s="256">
+        <v>138</v>
+      </c>
+      <c r="C25" t="s" s="257">
+        <v>13</v>
+      </c>
+      <c r="D25" t="s" s="258">
+        <v>139</v>
+      </c>
+      <c r="E25" t="s" s="259">
+        <v>140</v>
+      </c>
+      <c r="F25" t="s" s="260">
+        <v>29</v>
+      </c>
+      <c r="G25" t="s" s="261">
+        <v>35</v>
+      </c>
+      <c r="H25" t="s" s="262">
+        <v>36</v>
+      </c>
+      <c r="I25" t="s" s="263">
+        <v>141</v>
+      </c>
+      <c r="J25" t="s" s="264">
+        <v>20</v>
+      </c>
+      <c r="K25" t="s" s="265">
+        <v>21</v>
+      </c>
+      <c r="L25"/>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="266">
+        <v>142</v>
+      </c>
+      <c r="B26" t="s" s="267">
+        <v>143</v>
+      </c>
+      <c r="C26" t="s" s="268">
+        <v>13</v>
+      </c>
+      <c r="D26" t="s" s="269">
+        <v>144</v>
+      </c>
+      <c r="E26" t="s" s="270">
+        <v>145</v>
+      </c>
+      <c r="F26" t="s" s="271">
+        <v>29</v>
+      </c>
+      <c r="G26" t="s" s="272">
+        <v>64</v>
+      </c>
+      <c r="H26" t="s" s="273">
+        <v>65</v>
+      </c>
+      <c r="I26" t="s" s="274">
+        <v>146</v>
+      </c>
+      <c r="J26" t="s" s="275">
+        <v>20</v>
+      </c>
+      <c r="K26" t="s" s="276">
+        <v>21</v>
+      </c>
+      <c r="L26"/>
+    </row>
+    <row r="27">
+      <c r="A27" t="s" s="277">
+        <v>147</v>
+      </c>
+      <c r="B27" t="s" s="278">
+        <v>148</v>
+      </c>
+      <c r="C27" t="s" s="279">
+        <v>149</v>
+      </c>
+      <c r="D27" t="s" s="280">
+        <v>150</v>
+      </c>
+      <c r="E27" t="s" s="281">
+        <v>151</v>
+      </c>
+      <c r="F27" t="s" s="282">
+        <v>29</v>
+      </c>
+      <c r="G27" t="s" s="283">
+        <v>35</v>
+      </c>
+      <c r="H27" t="s" s="284">
+        <v>36</v>
+      </c>
+      <c r="I27" t="s" s="285">
+        <v>152</v>
+      </c>
+      <c r="J27" t="s" s="286">
+        <v>20</v>
+      </c>
+      <c r="K27" t="s" s="287">
+        <v>21</v>
+      </c>
+      <c r="L27"/>
+    </row>
+    <row r="28">
+      <c r="A28" t="s" s="288">
+        <v>153</v>
+      </c>
+      <c r="B28" t="s" s="289">
+        <v>154</v>
+      </c>
+      <c r="C28" t="s" s="290">
+        <v>149</v>
+      </c>
+      <c r="D28" t="s" s="291">
+        <v>14</v>
+      </c>
+      <c r="E28" t="s" s="292">
+        <v>151</v>
+      </c>
+      <c r="F28" t="s" s="293">
+        <v>29</v>
+      </c>
+      <c r="G28" t="s" s="294">
+        <v>155</v>
+      </c>
+      <c r="H28" t="s" s="295">
+        <v>156</v>
+      </c>
+      <c r="I28" t="s" s="296">
+        <v>157</v>
+      </c>
+      <c r="J28" t="s" s="297">
+        <v>20</v>
+      </c>
+      <c r="K28" t="s" s="298">
+        <v>21</v>
+      </c>
+      <c r="L28"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="s" s="299">
+        <v>158</v>
+      </c>
+      <c r="B29" t="s" s="300">
+        <v>159</v>
+      </c>
+      <c r="C29" t="s" s="301">
+        <v>149</v>
+      </c>
+      <c r="D29" t="s" s="302">
+        <v>14</v>
+      </c>
+      <c r="E29" t="s" s="303">
+        <v>151</v>
+      </c>
+      <c r="F29" t="s" s="304">
+        <v>29</v>
+      </c>
+      <c r="G29" t="s" s="305">
+        <v>160</v>
+      </c>
+      <c r="H29" t="s" s="306">
+        <v>161</v>
+      </c>
+      <c r="I29" t="s" s="307">
+        <v>162</v>
+      </c>
+      <c r="J29" t="s" s="308">
+        <v>20</v>
+      </c>
+      <c r="K29" t="s" s="309">
+        <v>21</v>
+      </c>
+      <c r="L29"/>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
